--- a/relatorios/repasses_liberados/dentistas/12700605462/2023-08-25_relatorio_repasses_12700605462.xlsx
+++ b/relatorios/repasses_liberados/dentistas/12700605462/2023-08-25_relatorio_repasses_12700605462.xlsx
@@ -40148,7 +40148,7 @@
         <v>0</v>
       </c>
       <c r="M868">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N868">
         <v>0</v>
@@ -40280,7 +40280,7 @@
         <v>0</v>
       </c>
       <c r="M871">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N871">
         <v>0</v>
@@ -42084,7 +42084,7 @@
         <v>0</v>
       </c>
       <c r="M912">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N912">
         <v>0</v>
@@ -42216,7 +42216,7 @@
         <v>0</v>
       </c>
       <c r="M915">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N915">
         <v>0</v>
@@ -42260,7 +42260,7 @@
         <v>0</v>
       </c>
       <c r="M916">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N916">
         <v>0</v>
@@ -43360,7 +43360,7 @@
         <v>0</v>
       </c>
       <c r="M941">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N941">
         <v>0</v>
@@ -45076,7 +45076,7 @@
         <v>0</v>
       </c>
       <c r="M980">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N980">
         <v>0</v>
@@ -45120,7 +45120,7 @@
         <v>0</v>
       </c>
       <c r="M981">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N981">
         <v>0</v>
@@ -45208,7 +45208,7 @@
         <v>0</v>
       </c>
       <c r="M983">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N983">
         <v>0</v>
@@ -45516,7 +45516,7 @@
         <v>0</v>
       </c>
       <c r="M990">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N990">
         <v>0</v>
@@ -46352,7 +46352,7 @@
         <v>0</v>
       </c>
       <c r="M1009">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1009">
         <v>0</v>
@@ -48156,7 +48156,7 @@
         <v>0</v>
       </c>
       <c r="M1050">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N1050">
         <v>0</v>
@@ -48244,7 +48244,7 @@
         <v>0</v>
       </c>
       <c r="M1052">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N1052">
         <v>0</v>
@@ -48904,7 +48904,7 @@
         <v>0</v>
       </c>
       <c r="M1067">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1067">
         <v>0</v>
@@ -48948,7 +48948,7 @@
         <v>0</v>
       </c>
       <c r="M1068">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1068">
         <v>0</v>
@@ -49212,7 +49212,7 @@
         <v>0</v>
       </c>
       <c r="M1074">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1074">
         <v>0</v>
@@ -49256,7 +49256,7 @@
         <v>0</v>
       </c>
       <c r="M1075">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1075">
         <v>0</v>
@@ -50268,7 +50268,7 @@
         <v>0</v>
       </c>
       <c r="M1098">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1098">
         <v>0</v>
@@ -50444,7 +50444,7 @@
         <v>0</v>
       </c>
       <c r="M1102">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1102">
         <v>0</v>
@@ -50532,7 +50532,7 @@
         <v>0</v>
       </c>
       <c r="M1104">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1104">
         <v>0</v>
@@ -51368,7 +51368,7 @@
         <v>0</v>
       </c>
       <c r="M1123">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1123">
         <v>0</v>
@@ -51412,7 +51412,7 @@
         <v>0</v>
       </c>
       <c r="M1124">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1124">
         <v>0</v>
@@ -52028,7 +52028,7 @@
         <v>0</v>
       </c>
       <c r="M1138">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1138">
         <v>0</v>
@@ -52644,7 +52644,7 @@
         <v>0</v>
       </c>
       <c r="M1152">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1152">
         <v>0</v>
@@ -52688,7 +52688,7 @@
         <v>0</v>
       </c>
       <c r="M1153">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1153">
         <v>0</v>
@@ -52996,7 +52996,7 @@
         <v>0</v>
       </c>
       <c r="M1160">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1160">
         <v>0</v>
@@ -53040,7 +53040,7 @@
         <v>0</v>
       </c>
       <c r="M1161">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1161">
         <v>0</v>
@@ -53216,7 +53216,7 @@
         <v>0</v>
       </c>
       <c r="M1165">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1165">
         <v>0</v>
@@ -53260,7 +53260,7 @@
         <v>0</v>
       </c>
       <c r="M1166">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1166">
         <v>0</v>
@@ -55064,7 +55064,7 @@
         <v>0</v>
       </c>
       <c r="M1207">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1207">
         <v>0</v>
@@ -55108,7 +55108,7 @@
         <v>0</v>
       </c>
       <c r="M1208">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1208">
         <v>0</v>
@@ -55416,7 +55416,7 @@
         <v>0</v>
       </c>
       <c r="M1215">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1215">
         <v>0</v>
@@ -55988,7 +55988,7 @@
         <v>0</v>
       </c>
       <c r="M1228">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1228">
         <v>0</v>
@@ -56032,7 +56032,7 @@
         <v>0</v>
       </c>
       <c r="M1229">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1229">
         <v>0</v>
@@ -56120,7 +56120,7 @@
         <v>0</v>
       </c>
       <c r="M1231">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1231">
         <v>0</v>
@@ -56164,7 +56164,7 @@
         <v>0</v>
       </c>
       <c r="M1232">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1232">
         <v>0</v>
@@ -56208,7 +56208,7 @@
         <v>0</v>
       </c>
       <c r="M1233">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1233">
         <v>0</v>
@@ -58012,7 +58012,7 @@
         <v>0</v>
       </c>
       <c r="M1274">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1274">
         <v>0</v>
@@ -58100,7 +58100,7 @@
         <v>0</v>
       </c>
       <c r="M1276">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1276">
         <v>0</v>
@@ -58716,7 +58716,7 @@
         <v>0</v>
       </c>
       <c r="M1290">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1290">
         <v>0</v>
@@ -58760,7 +58760,7 @@
         <v>0</v>
       </c>
       <c r="M1291">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1291">
         <v>0</v>
@@ -58980,7 +58980,7 @@
         <v>0</v>
       </c>
       <c r="M1296">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1296">
         <v>0</v>
@@ -59156,7 +59156,7 @@
         <v>0</v>
       </c>
       <c r="M1300">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1300">
         <v>0</v>
@@ -59200,7 +59200,7 @@
         <v>0</v>
       </c>
       <c r="M1301">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1301">
         <v>0</v>
@@ -59684,7 +59684,7 @@
         <v>0</v>
       </c>
       <c r="M1312">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1312">
         <v>0</v>
@@ -59904,7 +59904,7 @@
         <v>0</v>
       </c>
       <c r="M1317">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1317">
         <v>0</v>
@@ -59948,7 +59948,7 @@
         <v>0</v>
       </c>
       <c r="M1318">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N1318">
         <v>0</v>
@@ -60036,7 +60036,7 @@
         <v>0</v>
       </c>
       <c r="M1320">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N1320">
         <v>0</v>
@@ -60784,7 +60784,7 @@
         <v>0</v>
       </c>
       <c r="M1337">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1337">
         <v>0</v>
@@ -60828,7 +60828,7 @@
         <v>0</v>
       </c>
       <c r="M1338">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1338">
         <v>0</v>
@@ -61268,7 +61268,7 @@
         <v>0</v>
       </c>
       <c r="M1348">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1348">
         <v>0</v>
@@ -61312,7 +61312,7 @@
         <v>0</v>
       </c>
       <c r="M1349">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1349">
         <v>0</v>
@@ -61840,7 +61840,7 @@
         <v>0</v>
       </c>
       <c r="M1361">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1361">
         <v>0</v>
@@ -61884,7 +61884,7 @@
         <v>0</v>
       </c>
       <c r="M1362">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1362">
         <v>0</v>
@@ -62280,7 +62280,7 @@
         <v>0</v>
       </c>
       <c r="M1371">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1371">
         <v>0</v>
@@ -62456,7 +62456,7 @@
         <v>0</v>
       </c>
       <c r="M1375">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1375">
         <v>0</v>
@@ -62500,7 +62500,7 @@
         <v>0</v>
       </c>
       <c r="M1376">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1376">
         <v>0</v>
@@ -62896,7 +62896,7 @@
         <v>0</v>
       </c>
       <c r="M1385">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1385">
         <v>0</v>
@@ -63468,7 +63468,7 @@
         <v>0</v>
       </c>
       <c r="M1398">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1398">
         <v>0</v>
@@ -63732,7 +63732,7 @@
         <v>0</v>
       </c>
       <c r="M1404">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1404">
         <v>0</v>
@@ -66812,7 +66812,7 @@
         <v>0</v>
       </c>
       <c r="M1474">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1474">
         <v>0</v>
@@ -67296,7 +67296,7 @@
         <v>0</v>
       </c>
       <c r="M1485">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N1485">
         <v>0</v>
@@ -67340,7 +67340,7 @@
         <v>0</v>
       </c>
       <c r="M1486">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N1486">
         <v>0</v>
@@ -68220,7 +68220,7 @@
         <v>0</v>
       </c>
       <c r="M1506">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1506">
         <v>0</v>
@@ -68264,7 +68264,7 @@
         <v>0</v>
       </c>
       <c r="M1507">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1507">
         <v>0</v>
@@ -68748,7 +68748,7 @@
         <v>0</v>
       </c>
       <c r="M1518">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N1518">
         <v>0</v>
@@ -68792,7 +68792,7 @@
         <v>0</v>
       </c>
       <c r="M1519">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N1519">
         <v>0</v>
@@ -69320,7 +69320,7 @@
         <v>0</v>
       </c>
       <c r="M1531">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1531">
         <v>0</v>
@@ -69364,7 +69364,7 @@
         <v>0</v>
       </c>
       <c r="M1532">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1532">
         <v>0</v>
@@ -69980,7 +69980,7 @@
         <v>0</v>
       </c>
       <c r="M1546">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1546">
         <v>0</v>
@@ -70024,7 +70024,7 @@
         <v>0</v>
       </c>
       <c r="M1547">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1547">
         <v>0</v>
@@ -70244,7 +70244,7 @@
         <v>0</v>
       </c>
       <c r="M1552">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1552">
         <v>0</v>
@@ -70816,7 +70816,7 @@
         <v>0</v>
       </c>
       <c r="M1565">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1565">
         <v>0</v>
@@ -71432,7 +71432,7 @@
         <v>0</v>
       </c>
       <c r="M1579">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1579">
         <v>0</v>
@@ -71564,7 +71564,7 @@
         <v>0</v>
       </c>
       <c r="M1582">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1582">
         <v>0</v>
@@ -71652,7 +71652,7 @@
         <v>0</v>
       </c>
       <c r="M1584">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1584">
         <v>0</v>
@@ -71740,7 +71740,7 @@
         <v>0</v>
       </c>
       <c r="M1586">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1586">
         <v>0</v>
@@ -71828,7 +71828,7 @@
         <v>0</v>
       </c>
       <c r="M1588">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1588">
         <v>0</v>
@@ -72004,7 +72004,7 @@
         <v>0</v>
       </c>
       <c r="M1592">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1592">
         <v>0</v>
@@ -72048,7 +72048,7 @@
         <v>0</v>
       </c>
       <c r="M1593">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1593">
         <v>0</v>
@@ -73588,7 +73588,7 @@
         <v>0</v>
       </c>
       <c r="M1628">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1628">
         <v>0</v>
@@ -73632,7 +73632,7 @@
         <v>0</v>
       </c>
       <c r="M1629">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1629">
         <v>0</v>
@@ -74292,7 +74292,7 @@
         <v>0</v>
       </c>
       <c r="M1644">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1644">
         <v>0</v>
@@ -74336,7 +74336,7 @@
         <v>0</v>
       </c>
       <c r="M1645">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1645">
         <v>0</v>
@@ -77988,7 +77988,7 @@
         <v>0</v>
       </c>
       <c r="M1728">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1728">
         <v>0</v>
@@ -78384,7 +78384,7 @@
         <v>0</v>
       </c>
       <c r="M1737">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1737">
         <v>0</v>
@@ -79000,7 +79000,7 @@
         <v>0</v>
       </c>
       <c r="M1751">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1751">
         <v>0</v>
@@ -79044,7 +79044,7 @@
         <v>0</v>
       </c>
       <c r="M1752">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1752">
         <v>0</v>
@@ -79924,7 +79924,7 @@
         <v>0</v>
       </c>
       <c r="M1772">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1772">
         <v>0</v>
@@ -79968,7 +79968,7 @@
         <v>0</v>
       </c>
       <c r="M1773">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1773">
         <v>0</v>
@@ -80012,7 +80012,7 @@
         <v>0</v>
       </c>
       <c r="M1774">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1774">
         <v>0</v>
@@ -80804,7 +80804,7 @@
         <v>0</v>
       </c>
       <c r="M1792">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1792">
         <v>0</v>
@@ -80848,7 +80848,7 @@
         <v>0</v>
       </c>
       <c r="M1793">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1793">
         <v>0</v>
@@ -81244,7 +81244,7 @@
         <v>0</v>
       </c>
       <c r="M1802">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1802">
         <v>0</v>
@@ -81288,7 +81288,7 @@
         <v>0</v>
       </c>
       <c r="M1803">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1803">
         <v>0</v>
@@ -81508,7 +81508,7 @@
         <v>0</v>
       </c>
       <c r="M1808">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1808">
         <v>0</v>
@@ -81684,7 +81684,7 @@
         <v>0</v>
       </c>
       <c r="M1812">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1812">
         <v>0</v>
@@ -81772,7 +81772,7 @@
         <v>0</v>
       </c>
       <c r="M1814">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1814">
         <v>0</v>
@@ -82036,7 +82036,7 @@
         <v>0</v>
       </c>
       <c r="M1820">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1820">
         <v>0</v>
@@ -82080,7 +82080,7 @@
         <v>0</v>
       </c>
       <c r="M1821">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1821">
         <v>0</v>
@@ -82344,7 +82344,7 @@
         <v>0</v>
       </c>
       <c r="M1827">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1827">
         <v>0</v>
@@ -82388,7 +82388,7 @@
         <v>0</v>
       </c>
       <c r="M1828">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1828">
         <v>0</v>
@@ -82828,7 +82828,7 @@
         <v>0</v>
       </c>
       <c r="M1838">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N1838">
         <v>0</v>
@@ -82872,7 +82872,7 @@
         <v>0</v>
       </c>
       <c r="M1839">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N1839">
         <v>0</v>
@@ -83180,7 +83180,7 @@
         <v>0</v>
       </c>
       <c r="M1846">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1846">
         <v>0</v>
@@ -83268,7 +83268,7 @@
         <v>0</v>
       </c>
       <c r="M1848">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1848">
         <v>0</v>
@@ -83840,7 +83840,7 @@
         <v>0</v>
       </c>
       <c r="M1861">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1861">
         <v>0</v>
@@ -83884,7 +83884,7 @@
         <v>0</v>
       </c>
       <c r="M1862">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1862">
         <v>0</v>
@@ -84720,7 +84720,7 @@
         <v>0</v>
       </c>
       <c r="M1881">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1881">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/12700605462/2023-08-25_relatorio_repasses_12700605462.xlsx
+++ b/relatorios/repasses_liberados/dentistas/12700605462/2023-08-25_relatorio_repasses_12700605462.xlsx
@@ -10404,10 +10404,10 @@
         <v>0</v>
       </c>
       <c r="M192">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N192">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -10800,10 +10800,10 @@
         <v>0</v>
       </c>
       <c r="M201">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N201">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -10844,10 +10844,10 @@
         <v>0</v>
       </c>
       <c r="M202">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N202">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -11064,10 +11064,10 @@
         <v>0</v>
       </c>
       <c r="M207">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N207">
-        <v>6.588</v>
+        <v>8.784000000000001</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -11152,10 +11152,10 @@
         <v>0</v>
       </c>
       <c r="M209">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N209">
-        <v>6.588</v>
+        <v>8.784000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -11768,10 +11768,10 @@
         <v>0</v>
       </c>
       <c r="M223">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N223">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -11856,10 +11856,10 @@
         <v>0</v>
       </c>
       <c r="M225">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N225">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -11944,10 +11944,10 @@
         <v>0</v>
       </c>
       <c r="M227">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N227">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -12032,10 +12032,10 @@
         <v>0</v>
       </c>
       <c r="M229">
-        <v>0.3</v>
+        <v>0.54</v>
       </c>
       <c r="N229">
-        <v>6.6</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -12120,10 +12120,10 @@
         <v>0</v>
       </c>
       <c r="M231">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N231">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -12164,10 +12164,10 @@
         <v>0</v>
       </c>
       <c r="M232">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N232">
-        <v>16.8</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -12208,10 +12208,10 @@
         <v>0</v>
       </c>
       <c r="M233">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N233">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -12252,10 +12252,10 @@
         <v>0</v>
       </c>
       <c r="M234">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N234">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -12428,10 +12428,10 @@
         <v>0</v>
       </c>
       <c r="M238">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N238">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -12604,10 +12604,10 @@
         <v>0</v>
       </c>
       <c r="M242">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N242">
-        <v>6.588</v>
+        <v>65</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -12824,10 +12824,10 @@
         <v>0</v>
       </c>
       <c r="M247">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N247">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -12956,10 +12956,10 @@
         <v>0</v>
       </c>
       <c r="M250">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N250">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -13000,10 +13000,10 @@
         <v>0</v>
       </c>
       <c r="M251">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N251">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -13176,10 +13176,10 @@
         <v>0</v>
       </c>
       <c r="M255">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N255">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -13220,10 +13220,10 @@
         <v>0</v>
       </c>
       <c r="M256">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N256">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -13264,10 +13264,10 @@
         <v>0</v>
       </c>
       <c r="M257">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N257">
-        <v>7.257</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -13352,10 +13352,10 @@
         <v>0</v>
       </c>
       <c r="M259">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N259">
-        <v>7.763999999999999</v>
+        <v>10.352</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -13396,10 +13396,10 @@
         <v>0</v>
       </c>
       <c r="M260">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N260">
-        <v>0.03</v>
+        <v>0.04000000000000001</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -14056,10 +14056,10 @@
         <v>0</v>
       </c>
       <c r="M275">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N275">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="276" spans="1:14">
@@ -14892,10 +14892,10 @@
         <v>0</v>
       </c>
       <c r="M294">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N294">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="295" spans="1:14">
@@ -14936,10 +14936,10 @@
         <v>0</v>
       </c>
       <c r="M295">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N295">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="296" spans="1:14">
@@ -15244,10 +15244,10 @@
         <v>0</v>
       </c>
       <c r="M302">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N302">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="303" spans="1:14">
@@ -15420,10 +15420,10 @@
         <v>0</v>
       </c>
       <c r="M306">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N306">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="307" spans="1:14">
@@ -16080,10 +16080,10 @@
         <v>0</v>
       </c>
       <c r="M321">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N321">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="322" spans="1:14">
@@ -16784,10 +16784,10 @@
         <v>0</v>
       </c>
       <c r="M337">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N337">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="338" spans="1:14">
@@ -16872,10 +16872,10 @@
         <v>0</v>
       </c>
       <c r="M339">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N339">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:14">
@@ -16916,10 +16916,10 @@
         <v>0</v>
       </c>
       <c r="M340">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N340">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="341" spans="1:14">
@@ -16960,10 +16960,10 @@
         <v>0</v>
       </c>
       <c r="M341">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N341">
-        <v>2.64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="342" spans="1:14">
@@ -17004,10 +17004,10 @@
         <v>0</v>
       </c>
       <c r="M342">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N342">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="343" spans="1:14">
@@ -17092,10 +17092,10 @@
         <v>0</v>
       </c>
       <c r="M344">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N344">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="345" spans="1:14">
@@ -17136,10 +17136,10 @@
         <v>0</v>
       </c>
       <c r="M345">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N345">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="346" spans="1:14">
@@ -17224,10 +17224,10 @@
         <v>0</v>
       </c>
       <c r="M347">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N347">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:14">
@@ -18720,10 +18720,10 @@
         <v>0</v>
       </c>
       <c r="M381">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N381">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="382" spans="1:14">
@@ -18764,10 +18764,10 @@
         <v>0</v>
       </c>
       <c r="M382">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N382">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="383" spans="1:14">
@@ -18808,10 +18808,10 @@
         <v>0</v>
       </c>
       <c r="M383">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N383">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="384" spans="1:14">
@@ -19160,10 +19160,10 @@
         <v>0</v>
       </c>
       <c r="M391">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N391">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="392" spans="1:14">
@@ -19512,10 +19512,10 @@
         <v>0</v>
       </c>
       <c r="M399">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N399">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="400" spans="1:14">
@@ -19556,10 +19556,10 @@
         <v>0</v>
       </c>
       <c r="M400">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N400">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="401" spans="1:14">
@@ -19820,10 +19820,10 @@
         <v>0</v>
       </c>
       <c r="M406">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N406">
-        <v>7.244999999999999</v>
+        <v>12.075</v>
       </c>
     </row>
     <row r="407" spans="1:14">
@@ -19864,10 +19864,10 @@
         <v>0</v>
       </c>
       <c r="M407">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N407">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="408" spans="1:14">
@@ -19908,10 +19908,10 @@
         <v>0</v>
       </c>
       <c r="M408">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N408">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="409" spans="1:14">
@@ -19996,10 +19996,10 @@
         <v>0</v>
       </c>
       <c r="M410">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N410">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="411" spans="1:14">
@@ -20040,10 +20040,10 @@
         <v>0</v>
       </c>
       <c r="M411">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N411">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="412" spans="1:14">
@@ -20172,10 +20172,10 @@
         <v>0</v>
       </c>
       <c r="M414">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N414">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="415" spans="1:14">
@@ -20216,10 +20216,10 @@
         <v>0</v>
       </c>
       <c r="M415">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N415">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="416" spans="1:14">
@@ -20392,10 +20392,10 @@
         <v>0</v>
       </c>
       <c r="M419">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N419">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="420" spans="1:14">
@@ -20876,10 +20876,10 @@
         <v>0</v>
       </c>
       <c r="M430">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N430">
-        <v>1.98</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="431" spans="1:14">
@@ -20920,10 +20920,10 @@
         <v>0</v>
       </c>
       <c r="M431">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N431">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="432" spans="1:14">
@@ -21008,10 +21008,10 @@
         <v>0</v>
       </c>
       <c r="M433">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N433">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="434" spans="1:14">
@@ -21272,10 +21272,10 @@
         <v>0</v>
       </c>
       <c r="M439">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N439">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="440" spans="1:14">
@@ -21668,10 +21668,10 @@
         <v>0</v>
       </c>
       <c r="M448">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N448">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="449" spans="1:14">
@@ -21800,10 +21800,10 @@
         <v>0</v>
       </c>
       <c r="M451">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N451">
-        <v>1.98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="452" spans="1:14">
@@ -22020,10 +22020,10 @@
         <v>0</v>
       </c>
       <c r="M456">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N456">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="457" spans="1:14">
@@ -22152,10 +22152,10 @@
         <v>0</v>
       </c>
       <c r="M459">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N459">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="460" spans="1:14">
@@ -22196,10 +22196,10 @@
         <v>0</v>
       </c>
       <c r="M460">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N460">
-        <v>6.231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:14">
@@ -23340,10 +23340,10 @@
         <v>0</v>
       </c>
       <c r="M486">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N486">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:14">
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="M491">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N491">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="492" spans="1:14">
@@ -23648,10 +23648,10 @@
         <v>0</v>
       </c>
       <c r="M493">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N493">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="494" spans="1:14">
@@ -23692,10 +23692,10 @@
         <v>0</v>
       </c>
       <c r="M494">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N494">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="495" spans="1:14">
@@ -24176,10 +24176,10 @@
         <v>0</v>
       </c>
       <c r="M505">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N505">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:14">
@@ -24880,10 +24880,10 @@
         <v>0</v>
       </c>
       <c r="M521">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N521">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="522" spans="1:14">
@@ -24924,10 +24924,10 @@
         <v>0</v>
       </c>
       <c r="M522">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N522">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="523" spans="1:14">
@@ -25672,10 +25672,10 @@
         <v>0</v>
       </c>
       <c r="M539">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N539">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="540" spans="1:14">
@@ -25716,10 +25716,10 @@
         <v>0</v>
       </c>
       <c r="M540">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N540">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="541" spans="1:14">
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="M543">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N543">
-        <v>6.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="544" spans="1:14">
@@ -26376,10 +26376,10 @@
         <v>0</v>
       </c>
       <c r="M555">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N555">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="556" spans="1:14">
@@ -26948,10 +26948,10 @@
         <v>0</v>
       </c>
       <c r="M568">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N568">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="569" spans="1:14">
@@ -27036,10 +27036,10 @@
         <v>0</v>
       </c>
       <c r="M570">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N570">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="571" spans="1:14">
@@ -27080,10 +27080,10 @@
         <v>0</v>
       </c>
       <c r="M571">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N571">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="572" spans="1:14">
@@ -28092,10 +28092,10 @@
         <v>0</v>
       </c>
       <c r="M594">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N594">
-        <v>6.846</v>
+        <v>9.128</v>
       </c>
     </row>
     <row r="595" spans="1:14">
@@ -28180,10 +28180,10 @@
         <v>0</v>
       </c>
       <c r="M596">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N596">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="597" spans="1:14">
@@ -28224,10 +28224,10 @@
         <v>0</v>
       </c>
       <c r="M597">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N597">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="598" spans="1:14">
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="M605">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N605">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="606" spans="1:14">
@@ -28620,10 +28620,10 @@
         <v>0</v>
       </c>
       <c r="M606">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N606">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="607" spans="1:14">
@@ -28664,10 +28664,10 @@
         <v>0</v>
       </c>
       <c r="M607">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N607">
-        <v>2.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:14">
@@ -28752,10 +28752,10 @@
         <v>0</v>
       </c>
       <c r="M609">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N609">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="610" spans="1:14">
@@ -28796,10 +28796,10 @@
         <v>0</v>
       </c>
       <c r="M610">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N610">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="611" spans="1:14">
@@ -28840,10 +28840,10 @@
         <v>0</v>
       </c>
       <c r="M611">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N611">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="612" spans="1:14">
@@ -28884,10 +28884,10 @@
         <v>0</v>
       </c>
       <c r="M612">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N612">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="613" spans="1:14">
@@ -28928,10 +28928,10 @@
         <v>0</v>
       </c>
       <c r="M613">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N613">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="614" spans="1:14">
@@ -28972,10 +28972,10 @@
         <v>0</v>
       </c>
       <c r="M614">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N614">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="615" spans="1:14">
@@ -29060,10 +29060,10 @@
         <v>0</v>
       </c>
       <c r="M616">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N616">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:14">
@@ -29104,10 +29104,10 @@
         <v>0</v>
       </c>
       <c r="M617">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N617">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="618" spans="1:14">
@@ -29148,10 +29148,10 @@
         <v>0</v>
       </c>
       <c r="M618">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N618">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="619" spans="1:14">
@@ -29192,10 +29192,10 @@
         <v>0</v>
       </c>
       <c r="M619">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N619">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="620" spans="1:14">
@@ -29236,10 +29236,10 @@
         <v>0</v>
       </c>
       <c r="M620">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N620">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="621" spans="1:14">
@@ -29280,10 +29280,10 @@
         <v>0</v>
       </c>
       <c r="M621">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N621">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="622" spans="1:14">
@@ -29324,10 +29324,10 @@
         <v>0</v>
       </c>
       <c r="M622">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N622">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="623" spans="1:14">
@@ -29456,10 +29456,10 @@
         <v>0</v>
       </c>
       <c r="M625">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N625">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:14">
@@ -29500,10 +29500,10 @@
         <v>0</v>
       </c>
       <c r="M626">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N626">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="627" spans="1:14">
@@ -29544,10 +29544,10 @@
         <v>0</v>
       </c>
       <c r="M627">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N627">
-        <v>2.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:14">
@@ -29852,10 +29852,10 @@
         <v>0</v>
       </c>
       <c r="M634">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N634">
-        <v>9.893999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:14">
@@ -30248,10 +30248,10 @@
         <v>0</v>
       </c>
       <c r="M643">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N643">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="644" spans="1:14">
@@ -30292,10 +30292,10 @@
         <v>0</v>
       </c>
       <c r="M644">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N644">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="645" spans="1:14">
@@ -30600,10 +30600,10 @@
         <v>0</v>
       </c>
       <c r="M651">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N651">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="652" spans="1:14">
@@ -30644,10 +30644,10 @@
         <v>0</v>
       </c>
       <c r="M652">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N652">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:14">
@@ -30732,10 +30732,10 @@
         <v>0</v>
       </c>
       <c r="M654">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N654">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="655" spans="1:14">
@@ -30776,10 +30776,10 @@
         <v>0</v>
       </c>
       <c r="M655">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N655">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="656" spans="1:14">
@@ -31304,10 +31304,10 @@
         <v>0</v>
       </c>
       <c r="M667">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N667">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:14">
@@ -31920,10 +31920,10 @@
         <v>0</v>
       </c>
       <c r="M681">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N681">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="682" spans="1:14">
@@ -32316,10 +32316,10 @@
         <v>0</v>
       </c>
       <c r="M690">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N690">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:14">
@@ -33240,10 +33240,10 @@
         <v>0</v>
       </c>
       <c r="M711">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N711">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:14">
@@ -33548,10 +33548,10 @@
         <v>0</v>
       </c>
       <c r="M718">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N718">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:14">
@@ -33724,10 +33724,10 @@
         <v>0</v>
       </c>
       <c r="M722">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N722">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="723" spans="1:14">
@@ -33900,10 +33900,10 @@
         <v>0</v>
       </c>
       <c r="M726">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N726">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="727" spans="1:14">
@@ -34252,10 +34252,10 @@
         <v>0</v>
       </c>
       <c r="M734">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N734">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="735" spans="1:14">
@@ -34340,10 +34340,10 @@
         <v>0</v>
       </c>
       <c r="M736">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N736">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="737" spans="1:14">
@@ -34384,10 +34384,10 @@
         <v>0</v>
       </c>
       <c r="M737">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N737">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:14">
@@ -34472,10 +34472,10 @@
         <v>0</v>
       </c>
       <c r="M739">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N739">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="740" spans="1:14">
@@ -34824,10 +34824,10 @@
         <v>0</v>
       </c>
       <c r="M747">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N747">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="748" spans="1:14">
@@ -35132,10 +35132,10 @@
         <v>0</v>
       </c>
       <c r="M754">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N754">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="755" spans="1:14">
@@ -35176,10 +35176,10 @@
         <v>0</v>
       </c>
       <c r="M755">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N755">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="756" spans="1:14">
@@ -35220,10 +35220,10 @@
         <v>0</v>
       </c>
       <c r="M756">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N756">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="757" spans="1:14">
@@ -35264,10 +35264,10 @@
         <v>0</v>
       </c>
       <c r="M757">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N757">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="758" spans="1:14">
@@ -35308,10 +35308,10 @@
         <v>0</v>
       </c>
       <c r="M758">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N758">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="759" spans="1:14">
@@ -35352,10 +35352,10 @@
         <v>0</v>
       </c>
       <c r="M759">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N759">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="760" spans="1:14">
@@ -35440,10 +35440,10 @@
         <v>0</v>
       </c>
       <c r="M761">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N761">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:14">
@@ -35484,10 +35484,10 @@
         <v>0</v>
       </c>
       <c r="M762">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N762">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:14">
@@ -35528,10 +35528,10 @@
         <v>0</v>
       </c>
       <c r="M763">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N763">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="764" spans="1:14">
@@ -35572,10 +35572,10 @@
         <v>0</v>
       </c>
       <c r="M764">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N764">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="765" spans="1:14">
@@ -36056,10 +36056,10 @@
         <v>0</v>
       </c>
       <c r="M775">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N775">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="776" spans="1:14">
@@ -36100,10 +36100,10 @@
         <v>0</v>
       </c>
       <c r="M776">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N776">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="777" spans="1:14">
@@ -36144,10 +36144,10 @@
         <v>0</v>
       </c>
       <c r="M777">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N777">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="778" spans="1:14">
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="M780">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N780">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="781" spans="1:14">
@@ -36408,10 +36408,10 @@
         <v>0</v>
       </c>
       <c r="M783">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N783">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="784" spans="1:14">
@@ -36452,10 +36452,10 @@
         <v>0</v>
       </c>
       <c r="M784">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N784">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="785" spans="1:14">
@@ -36584,10 +36584,10 @@
         <v>0</v>
       </c>
       <c r="M787">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N787">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="788" spans="1:14">
@@ -36716,10 +36716,10 @@
         <v>0</v>
       </c>
       <c r="M790">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N790">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="791" spans="1:14">
@@ -36760,10 +36760,10 @@
         <v>0</v>
       </c>
       <c r="M791">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N791">
-        <v>6.6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="792" spans="1:14">
@@ -36804,10 +36804,10 @@
         <v>0</v>
       </c>
       <c r="M792">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N792">
-        <v>6.6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="793" spans="1:14">
@@ -36848,10 +36848,10 @@
         <v>0</v>
       </c>
       <c r="M793">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N793">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:14">
@@ -37024,10 +37024,10 @@
         <v>0</v>
       </c>
       <c r="M797">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N797">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:14">
@@ -37508,10 +37508,10 @@
         <v>0</v>
       </c>
       <c r="M808">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N808">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="809" spans="1:14">
@@ -37816,10 +37816,10 @@
         <v>0</v>
       </c>
       <c r="M815">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N815">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="816" spans="1:14">
@@ -38036,10 +38036,10 @@
         <v>0</v>
       </c>
       <c r="M820">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N820">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="821" spans="1:14">
@@ -38256,10 +38256,10 @@
         <v>0</v>
       </c>
       <c r="M825">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N825">
-        <v>6.846</v>
+        <v>5</v>
       </c>
     </row>
     <row r="826" spans="1:14">
@@ -38652,10 +38652,10 @@
         <v>0</v>
       </c>
       <c r="M834">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N834">
-        <v>3.672</v>
+        <v>4.896000000000001</v>
       </c>
     </row>
     <row r="835" spans="1:14">
@@ -38696,10 +38696,10 @@
         <v>0</v>
       </c>
       <c r="M835">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N835">
-        <v>9.792</v>
+        <v>13.056</v>
       </c>
     </row>
     <row r="836" spans="1:14">
@@ -39840,10 +39840,10 @@
         <v>0</v>
       </c>
       <c r="M861">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N861">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="862" spans="1:14">
@@ -40148,7 +40148,7 @@
         <v>0</v>
       </c>
       <c r="M868">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N868">
         <v>0</v>
@@ -40236,7 +40236,7 @@
         <v>0</v>
       </c>
       <c r="M870">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N870">
         <v>0</v>
@@ -40280,7 +40280,7 @@
         <v>0</v>
       </c>
       <c r="M871">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N871">
         <v>0</v>
@@ -40544,7 +40544,7 @@
         <v>0</v>
       </c>
       <c r="M877">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N877">
         <v>0</v>
@@ -40588,7 +40588,7 @@
         <v>0</v>
       </c>
       <c r="M878">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N878">
         <v>0</v>
@@ -40764,7 +40764,7 @@
         <v>0</v>
       </c>
       <c r="M882">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N882">
         <v>0</v>
@@ -40984,7 +40984,7 @@
         <v>0</v>
       </c>
       <c r="M887">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N887">
         <v>0</v>
@@ -41028,7 +41028,7 @@
         <v>0</v>
       </c>
       <c r="M888">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N888">
         <v>0</v>
@@ -41116,7 +41116,7 @@
         <v>0</v>
       </c>
       <c r="M890">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N890">
         <v>0</v>
@@ -41160,7 +41160,7 @@
         <v>0</v>
       </c>
       <c r="M891">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N891">
         <v>0</v>
@@ -41600,7 +41600,7 @@
         <v>0</v>
       </c>
       <c r="M901">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N901">
         <v>0</v>
@@ -42084,7 +42084,7 @@
         <v>0</v>
       </c>
       <c r="M912">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N912">
         <v>0</v>
@@ -42128,7 +42128,7 @@
         <v>0</v>
       </c>
       <c r="M913">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N913">
         <v>0</v>
@@ -42260,7 +42260,7 @@
         <v>0</v>
       </c>
       <c r="M916">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N916">
         <v>0</v>
@@ -42304,7 +42304,7 @@
         <v>0</v>
       </c>
       <c r="M917">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N917">
         <v>0</v>
@@ -42348,7 +42348,7 @@
         <v>0</v>
       </c>
       <c r="M918">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N918">
         <v>0</v>
@@ -42744,7 +42744,7 @@
         <v>0</v>
       </c>
       <c r="M927">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N927">
         <v>0</v>
@@ -42964,7 +42964,7 @@
         <v>0</v>
       </c>
       <c r="M932">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N932">
         <v>0</v>
@@ -43008,7 +43008,7 @@
         <v>0</v>
       </c>
       <c r="M933">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N933">
         <v>0</v>
@@ -43096,7 +43096,7 @@
         <v>0</v>
       </c>
       <c r="M935">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N935">
         <v>0</v>
@@ -43140,7 +43140,7 @@
         <v>0</v>
       </c>
       <c r="M936">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N936">
         <v>0</v>
@@ -43360,7 +43360,7 @@
         <v>0</v>
       </c>
       <c r="M941">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N941">
         <v>0</v>
@@ -43492,7 +43492,7 @@
         <v>0</v>
       </c>
       <c r="M944">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N944">
         <v>0</v>
@@ -43536,7 +43536,7 @@
         <v>0</v>
       </c>
       <c r="M945">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N945">
         <v>0</v>
@@ -43624,7 +43624,7 @@
         <v>0</v>
       </c>
       <c r="M947">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N947">
         <v>0</v>
@@ -43668,7 +43668,7 @@
         <v>0</v>
       </c>
       <c r="M948">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N948">
         <v>0</v>
@@ -43712,7 +43712,7 @@
         <v>0</v>
       </c>
       <c r="M949">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N949">
         <v>0</v>
@@ -43844,7 +43844,7 @@
         <v>0</v>
       </c>
       <c r="M952">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N952">
         <v>0</v>
@@ -44504,7 +44504,7 @@
         <v>0</v>
       </c>
       <c r="M967">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N967">
         <v>0</v>
@@ -44548,7 +44548,7 @@
         <v>0</v>
       </c>
       <c r="M968">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N968">
         <v>0</v>
@@ -44636,7 +44636,7 @@
         <v>0</v>
       </c>
       <c r="M970">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N970">
         <v>0</v>
@@ -44680,7 +44680,7 @@
         <v>0</v>
       </c>
       <c r="M971">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N971">
         <v>0</v>
@@ -44856,7 +44856,7 @@
         <v>0</v>
       </c>
       <c r="M975">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N975">
         <v>0</v>
@@ -45032,7 +45032,7 @@
         <v>0</v>
       </c>
       <c r="M979">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N979">
         <v>0</v>
@@ -45076,7 +45076,7 @@
         <v>0</v>
       </c>
       <c r="M980">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N980">
         <v>0</v>
@@ -45120,7 +45120,7 @@
         <v>0</v>
       </c>
       <c r="M981">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N981">
         <v>0</v>
@@ -45208,7 +45208,7 @@
         <v>0</v>
       </c>
       <c r="M983">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N983">
         <v>0</v>
@@ -45252,7 +45252,7 @@
         <v>0</v>
       </c>
       <c r="M984">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N984">
         <v>0</v>
@@ -45296,7 +45296,7 @@
         <v>0</v>
       </c>
       <c r="M985">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N985">
         <v>0</v>
@@ -45428,7 +45428,7 @@
         <v>0</v>
       </c>
       <c r="M988">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N988">
         <v>0</v>
@@ -45472,7 +45472,7 @@
         <v>0</v>
       </c>
       <c r="M989">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N989">
         <v>0</v>
@@ -45516,7 +45516,7 @@
         <v>0</v>
       </c>
       <c r="M990">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N990">
         <v>0</v>
@@ -45560,7 +45560,7 @@
         <v>0</v>
       </c>
       <c r="M991">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N991">
         <v>0</v>
@@ -45604,7 +45604,7 @@
         <v>0</v>
       </c>
       <c r="M992">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N992">
         <v>0</v>
@@ -45648,7 +45648,7 @@
         <v>0</v>
       </c>
       <c r="M993">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N993">
         <v>0</v>
@@ -45692,7 +45692,7 @@
         <v>0</v>
       </c>
       <c r="M994">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N994">
         <v>0</v>
@@ -45736,7 +45736,7 @@
         <v>0</v>
       </c>
       <c r="M995">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N995">
         <v>0</v>
@@ -46220,7 +46220,7 @@
         <v>0</v>
       </c>
       <c r="M1006">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1006">
         <v>0</v>
@@ -46264,7 +46264,7 @@
         <v>0</v>
       </c>
       <c r="M1007">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1007">
         <v>0</v>
@@ -46308,7 +46308,7 @@
         <v>0</v>
       </c>
       <c r="M1008">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1008">
         <v>0</v>
@@ -46352,7 +46352,7 @@
         <v>0</v>
       </c>
       <c r="M1009">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1009">
         <v>0</v>
@@ -46484,7 +46484,7 @@
         <v>0</v>
       </c>
       <c r="M1012">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1012">
         <v>0</v>
@@ -46528,7 +46528,7 @@
         <v>0</v>
       </c>
       <c r="M1013">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1013">
         <v>0</v>
@@ -46572,7 +46572,7 @@
         <v>0</v>
       </c>
       <c r="M1014">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1014">
         <v>0</v>
@@ -46704,7 +46704,7 @@
         <v>0</v>
       </c>
       <c r="M1017">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1017">
         <v>0</v>
@@ -47232,7 +47232,7 @@
         <v>0</v>
       </c>
       <c r="M1029">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1029">
         <v>0</v>
@@ -47276,7 +47276,7 @@
         <v>0</v>
       </c>
       <c r="M1030">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1030">
         <v>0</v>
@@ -47760,7 +47760,7 @@
         <v>0</v>
       </c>
       <c r="M1041">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1041">
         <v>0</v>
@@ -47804,7 +47804,7 @@
         <v>0</v>
       </c>
       <c r="M1042">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1042">
         <v>0</v>
@@ -47892,7 +47892,7 @@
         <v>0</v>
       </c>
       <c r="M1044">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N1044">
         <v>0</v>
@@ -48156,7 +48156,7 @@
         <v>0</v>
       </c>
       <c r="M1050">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N1050">
         <v>0</v>
@@ -48288,7 +48288,7 @@
         <v>0</v>
       </c>
       <c r="M1053">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1053">
         <v>0</v>
@@ -48376,7 +48376,7 @@
         <v>0</v>
       </c>
       <c r="M1055">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1055">
         <v>0</v>
@@ -48420,7 +48420,7 @@
         <v>0</v>
       </c>
       <c r="M1056">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1056">
         <v>0</v>
@@ -48464,7 +48464,7 @@
         <v>0</v>
       </c>
       <c r="M1057">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1057">
         <v>0</v>
@@ -48728,7 +48728,7 @@
         <v>0</v>
       </c>
       <c r="M1063">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1063">
         <v>0</v>
@@ -48904,7 +48904,7 @@
         <v>0</v>
       </c>
       <c r="M1067">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1067">
         <v>0</v>
@@ -49212,7 +49212,7 @@
         <v>0</v>
       </c>
       <c r="M1074">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1074">
         <v>0</v>
@@ -49344,7 +49344,7 @@
         <v>0</v>
       </c>
       <c r="M1077">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1077">
         <v>0</v>
@@ -49388,7 +49388,7 @@
         <v>0</v>
       </c>
       <c r="M1078">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1078">
         <v>0</v>
@@ -49432,7 +49432,7 @@
         <v>0</v>
       </c>
       <c r="M1079">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1079">
         <v>0</v>
@@ -49784,7 +49784,7 @@
         <v>0</v>
       </c>
       <c r="M1087">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1087">
         <v>0</v>
@@ -49828,7 +49828,7 @@
         <v>0</v>
       </c>
       <c r="M1088">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1088">
         <v>0</v>
@@ -50180,7 +50180,7 @@
         <v>0</v>
       </c>
       <c r="M1096">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1096">
         <v>0</v>
@@ -50224,7 +50224,7 @@
         <v>0</v>
       </c>
       <c r="M1097">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1097">
         <v>0</v>
@@ -50268,7 +50268,7 @@
         <v>0</v>
       </c>
       <c r="M1098">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1098">
         <v>0</v>
@@ -50312,7 +50312,7 @@
         <v>0</v>
       </c>
       <c r="M1099">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1099">
         <v>0</v>
@@ -50356,7 +50356,7 @@
         <v>0</v>
       </c>
       <c r="M1100">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1100">
         <v>0</v>
@@ -50400,7 +50400,7 @@
         <v>0</v>
       </c>
       <c r="M1101">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1101">
         <v>0</v>
@@ -50532,7 +50532,7 @@
         <v>0</v>
       </c>
       <c r="M1104">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1104">
         <v>0</v>
@@ -50664,7 +50664,7 @@
         <v>0</v>
       </c>
       <c r="M1107">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1107">
         <v>0</v>
@@ -50708,7 +50708,7 @@
         <v>0</v>
       </c>
       <c r="M1108">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1108">
         <v>0</v>
@@ -50752,7 +50752,7 @@
         <v>0</v>
       </c>
       <c r="M1109">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="N1109">
         <v>0</v>
@@ -50796,7 +50796,7 @@
         <v>0</v>
       </c>
       <c r="M1110">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1110">
         <v>0</v>
@@ -50928,7 +50928,7 @@
         <v>0</v>
       </c>
       <c r="M1113">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1113">
         <v>0</v>
@@ -51280,7 +51280,7 @@
         <v>0</v>
       </c>
       <c r="M1121">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1121">
         <v>0</v>
@@ -51324,7 +51324,7 @@
         <v>0</v>
       </c>
       <c r="M1122">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1122">
         <v>0</v>
@@ -51368,7 +51368,7 @@
         <v>0</v>
       </c>
       <c r="M1123">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1123">
         <v>0</v>
@@ -51588,7 +51588,7 @@
         <v>0</v>
       </c>
       <c r="M1128">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1128">
         <v>0</v>
@@ -51808,7 +51808,7 @@
         <v>0</v>
       </c>
       <c r="M1133">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1133">
         <v>0</v>
@@ -51984,7 +51984,7 @@
         <v>0</v>
       </c>
       <c r="M1137">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="N1137">
         <v>0</v>
@@ -52028,7 +52028,7 @@
         <v>0</v>
       </c>
       <c r="M1138">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1138">
         <v>0</v>
@@ -52072,7 +52072,7 @@
         <v>0</v>
       </c>
       <c r="M1139">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1139">
         <v>0</v>
@@ -52116,7 +52116,7 @@
         <v>0</v>
       </c>
       <c r="M1140">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1140">
         <v>0</v>
@@ -52292,7 +52292,7 @@
         <v>0</v>
       </c>
       <c r="M1144">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1144">
         <v>0</v>
@@ -52600,7 +52600,7 @@
         <v>0</v>
       </c>
       <c r="M1151">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1151">
         <v>0</v>
@@ -52644,7 +52644,7 @@
         <v>0</v>
       </c>
       <c r="M1152">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1152">
         <v>0</v>
@@ -52688,7 +52688,7 @@
         <v>0</v>
       </c>
       <c r="M1153">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1153">
         <v>0</v>
@@ -52776,7 +52776,7 @@
         <v>0</v>
       </c>
       <c r="M1155">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N1155">
         <v>0</v>
@@ -52864,7 +52864,7 @@
         <v>0</v>
       </c>
       <c r="M1157">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1157">
         <v>0</v>
@@ -52952,7 +52952,7 @@
         <v>0</v>
       </c>
       <c r="M1159">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1159">
         <v>0</v>
@@ -52996,7 +52996,7 @@
         <v>0</v>
       </c>
       <c r="M1160">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1160">
         <v>0</v>
@@ -53084,7 +53084,7 @@
         <v>0</v>
       </c>
       <c r="M1162">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1162">
         <v>0</v>
@@ -53216,7 +53216,7 @@
         <v>0</v>
       </c>
       <c r="M1165">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1165">
         <v>0</v>
@@ -53656,7 +53656,7 @@
         <v>0</v>
       </c>
       <c r="M1175">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1175">
         <v>0</v>
@@ -53700,7 +53700,7 @@
         <v>0</v>
       </c>
       <c r="M1176">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N1176">
         <v>0</v>
@@ -53876,7 +53876,7 @@
         <v>0</v>
       </c>
       <c r="M1180">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1180">
         <v>0</v>
@@ -53920,7 +53920,7 @@
         <v>0</v>
       </c>
       <c r="M1181">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1181">
         <v>0</v>
@@ -53964,7 +53964,7 @@
         <v>0</v>
       </c>
       <c r="M1182">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1182">
         <v>0</v>
@@ -54140,7 +54140,7 @@
         <v>0</v>
       </c>
       <c r="M1186">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1186">
         <v>0</v>
@@ -54184,7 +54184,7 @@
         <v>0</v>
       </c>
       <c r="M1187">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1187">
         <v>0</v>
@@ -54228,7 +54228,7 @@
         <v>0</v>
       </c>
       <c r="M1188">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1188">
         <v>0</v>
@@ -54844,7 +54844,7 @@
         <v>0</v>
       </c>
       <c r="M1202">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1202">
         <v>0</v>
@@ -54888,7 +54888,7 @@
         <v>0</v>
       </c>
       <c r="M1203">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1203">
         <v>0</v>
@@ -55064,7 +55064,7 @@
         <v>0</v>
       </c>
       <c r="M1207">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1207">
         <v>0</v>
@@ -55152,7 +55152,7 @@
         <v>0</v>
       </c>
       <c r="M1209">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1209">
         <v>0</v>
@@ -55196,7 +55196,7 @@
         <v>0</v>
       </c>
       <c r="M1210">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1210">
         <v>0</v>
@@ -55284,7 +55284,7 @@
         <v>0</v>
       </c>
       <c r="M1212">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1212">
         <v>0</v>
@@ -55812,7 +55812,7 @@
         <v>0</v>
       </c>
       <c r="M1224">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1224">
         <v>0</v>
@@ -55856,7 +55856,7 @@
         <v>0</v>
       </c>
       <c r="M1225">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1225">
         <v>0</v>
@@ -55988,7 +55988,7 @@
         <v>0</v>
       </c>
       <c r="M1228">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1228">
         <v>0</v>
@@ -56032,7 +56032,7 @@
         <v>0</v>
       </c>
       <c r="M1229">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1229">
         <v>0</v>
@@ -56076,7 +56076,7 @@
         <v>0</v>
       </c>
       <c r="M1230">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1230">
         <v>0</v>
@@ -56164,7 +56164,7 @@
         <v>0</v>
       </c>
       <c r="M1232">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1232">
         <v>0</v>
@@ -56340,7 +56340,7 @@
         <v>0</v>
       </c>
       <c r="M1236">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1236">
         <v>0</v>
@@ -56780,7 +56780,7 @@
         <v>0</v>
       </c>
       <c r="M1246">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1246">
         <v>0</v>
@@ -57132,7 +57132,7 @@
         <v>0</v>
       </c>
       <c r="M1254">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1254">
         <v>0</v>
@@ -57176,7 +57176,7 @@
         <v>0</v>
       </c>
       <c r="M1255">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1255">
         <v>0</v>
@@ -57396,7 +57396,7 @@
         <v>0</v>
       </c>
       <c r="M1260">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1260">
         <v>0</v>
@@ -57528,7 +57528,7 @@
         <v>0</v>
       </c>
       <c r="M1263">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1263">
         <v>0</v>
@@ -57660,7 +57660,7 @@
         <v>0</v>
       </c>
       <c r="M1266">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1266">
         <v>0</v>
@@ -57748,7 +57748,7 @@
         <v>0</v>
       </c>
       <c r="M1268">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1268">
         <v>0</v>
@@ -57836,7 +57836,7 @@
         <v>0</v>
       </c>
       <c r="M1270">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1270">
         <v>0</v>
@@ -58056,7 +58056,7 @@
         <v>0</v>
       </c>
       <c r="M1275">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1275">
         <v>0</v>
@@ -58100,7 +58100,7 @@
         <v>0</v>
       </c>
       <c r="M1276">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1276">
         <v>0</v>
@@ -58144,7 +58144,7 @@
         <v>0</v>
       </c>
       <c r="M1277">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N1277">
         <v>0</v>
@@ -58188,7 +58188,7 @@
         <v>0</v>
       </c>
       <c r="M1278">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1278">
         <v>0</v>
@@ -58232,7 +58232,7 @@
         <v>0</v>
       </c>
       <c r="M1279">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1279">
         <v>0</v>
@@ -58276,7 +58276,7 @@
         <v>0</v>
       </c>
       <c r="M1280">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1280">
         <v>0</v>
@@ -58320,7 +58320,7 @@
         <v>0</v>
       </c>
       <c r="M1281">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1281">
         <v>0</v>
@@ -58408,7 +58408,7 @@
         <v>0</v>
       </c>
       <c r="M1283">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1283">
         <v>0</v>
@@ -58452,7 +58452,7 @@
         <v>0</v>
       </c>
       <c r="M1284">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1284">
         <v>0</v>
@@ -58672,7 +58672,7 @@
         <v>0</v>
       </c>
       <c r="M1289">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1289">
         <v>0</v>
@@ -58760,7 +58760,7 @@
         <v>0</v>
       </c>
       <c r="M1291">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1291">
         <v>0</v>
@@ -58980,7 +58980,7 @@
         <v>0</v>
       </c>
       <c r="M1296">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1296">
         <v>0</v>
@@ -59024,7 +59024,7 @@
         <v>0</v>
       </c>
       <c r="M1297">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1297">
         <v>0</v>
@@ -59200,7 +59200,7 @@
         <v>0</v>
       </c>
       <c r="M1301">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1301">
         <v>0</v>
@@ -59332,7 +59332,7 @@
         <v>0</v>
       </c>
       <c r="M1304">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1304">
         <v>0</v>
@@ -59376,7 +59376,7 @@
         <v>0</v>
       </c>
       <c r="M1305">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1305">
         <v>0</v>
@@ -59508,7 +59508,7 @@
         <v>0</v>
       </c>
       <c r="M1308">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1308">
         <v>0</v>
@@ -59552,7 +59552,7 @@
         <v>0</v>
       </c>
       <c r="M1309">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1309">
         <v>0</v>
@@ -59596,7 +59596,7 @@
         <v>0</v>
       </c>
       <c r="M1310">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1310">
         <v>0</v>
@@ -59684,7 +59684,7 @@
         <v>0</v>
       </c>
       <c r="M1312">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1312">
         <v>0</v>
@@ -59948,7 +59948,7 @@
         <v>0</v>
       </c>
       <c r="M1318">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N1318">
         <v>0</v>
@@ -59992,7 +59992,7 @@
         <v>0</v>
       </c>
       <c r="M1319">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N1319">
         <v>0</v>
@@ -60256,7 +60256,7 @@
         <v>0</v>
       </c>
       <c r="M1325">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1325">
         <v>0</v>
@@ -60476,7 +60476,7 @@
         <v>0</v>
       </c>
       <c r="M1330">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1330">
         <v>0</v>
@@ -60696,7 +60696,7 @@
         <v>0</v>
       </c>
       <c r="M1335">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1335">
         <v>0</v>
@@ -60784,7 +60784,7 @@
         <v>0</v>
       </c>
       <c r="M1337">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1337">
         <v>0</v>
@@ -60960,7 +60960,7 @@
         <v>0</v>
       </c>
       <c r="M1341">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1341">
         <v>0</v>
@@ -61312,7 +61312,7 @@
         <v>0</v>
       </c>
       <c r="M1349">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1349">
         <v>0</v>
@@ -61356,7 +61356,7 @@
         <v>0</v>
       </c>
       <c r="M1350">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1350">
         <v>0</v>
@@ -61532,7 +61532,7 @@
         <v>0</v>
       </c>
       <c r="M1354">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1354">
         <v>0</v>
@@ -61576,7 +61576,7 @@
         <v>0</v>
       </c>
       <c r="M1355">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1355">
         <v>0</v>
@@ -61796,7 +61796,7 @@
         <v>0</v>
       </c>
       <c r="M1360">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1360">
         <v>0</v>
@@ -61884,7 +61884,7 @@
         <v>0</v>
       </c>
       <c r="M1362">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1362">
         <v>0</v>
@@ -61972,7 +61972,7 @@
         <v>0</v>
       </c>
       <c r="M1364">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1364">
         <v>0</v>
@@ -62016,7 +62016,7 @@
         <v>0</v>
       </c>
       <c r="M1365">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1365">
         <v>0</v>
@@ -62280,7 +62280,7 @@
         <v>0</v>
       </c>
       <c r="M1371">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N1371">
         <v>0</v>
@@ -62456,7 +62456,7 @@
         <v>0</v>
       </c>
       <c r="M1375">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1375">
         <v>0</v>
@@ -62500,7 +62500,7 @@
         <v>0</v>
       </c>
       <c r="M1376">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1376">
         <v>0</v>
@@ -62896,7 +62896,7 @@
         <v>0</v>
       </c>
       <c r="M1385">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="N1385">
         <v>0</v>
@@ -62940,7 +62940,7 @@
         <v>0</v>
       </c>
       <c r="M1386">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1386">
         <v>0</v>
@@ -62984,7 +62984,7 @@
         <v>0</v>
       </c>
       <c r="M1387">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1387">
         <v>0</v>
@@ -63028,7 +63028,7 @@
         <v>0</v>
       </c>
       <c r="M1388">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1388">
         <v>0</v>
@@ -63116,7 +63116,7 @@
         <v>0</v>
       </c>
       <c r="M1390">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1390">
         <v>0</v>
@@ -63160,7 +63160,7 @@
         <v>0</v>
       </c>
       <c r="M1391">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1391">
         <v>0</v>
@@ -63424,7 +63424,7 @@
         <v>0</v>
       </c>
       <c r="M1397">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1397">
         <v>0</v>
@@ -63468,7 +63468,7 @@
         <v>0</v>
       </c>
       <c r="M1398">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1398">
         <v>0</v>
@@ -63512,7 +63512,7 @@
         <v>0</v>
       </c>
       <c r="M1399">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1399">
         <v>0</v>
@@ -63556,7 +63556,7 @@
         <v>0</v>
       </c>
       <c r="M1400">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1400">
         <v>0</v>
@@ -63688,7 +63688,7 @@
         <v>0</v>
       </c>
       <c r="M1403">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1403">
         <v>0</v>
@@ -63732,7 +63732,7 @@
         <v>0</v>
       </c>
       <c r="M1404">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1404">
         <v>0</v>
@@ -63776,7 +63776,7 @@
         <v>0</v>
       </c>
       <c r="M1405">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1405">
         <v>0</v>
@@ -63820,7 +63820,7 @@
         <v>0</v>
       </c>
       <c r="M1406">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1406">
         <v>0</v>
@@ -64084,7 +64084,7 @@
         <v>0</v>
       </c>
       <c r="M1412">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1412">
         <v>0</v>
@@ -64304,7 +64304,7 @@
         <v>0</v>
       </c>
       <c r="M1417">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1417">
         <v>0</v>
@@ -64348,7 +64348,7 @@
         <v>0</v>
       </c>
       <c r="M1418">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1418">
         <v>0</v>
@@ -64392,7 +64392,7 @@
         <v>0</v>
       </c>
       <c r="M1419">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1419">
         <v>0</v>
@@ -65624,7 +65624,7 @@
         <v>0</v>
       </c>
       <c r="M1447">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1447">
         <v>0</v>
@@ -65668,7 +65668,7 @@
         <v>0</v>
       </c>
       <c r="M1448">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1448">
         <v>0</v>
@@ -65712,7 +65712,7 @@
         <v>0</v>
       </c>
       <c r="M1449">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1449">
         <v>0</v>
@@ -66064,7 +66064,7 @@
         <v>0</v>
       </c>
       <c r="M1457">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N1457">
         <v>0</v>
@@ -66504,7 +66504,7 @@
         <v>0</v>
       </c>
       <c r="M1467">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1467">
         <v>0</v>
@@ -66548,7 +66548,7 @@
         <v>0</v>
       </c>
       <c r="M1468">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1468">
         <v>0</v>
@@ -66592,7 +66592,7 @@
         <v>0</v>
       </c>
       <c r="M1469">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1469">
         <v>0</v>
@@ -66724,7 +66724,7 @@
         <v>0</v>
       </c>
       <c r="M1472">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1472">
         <v>0</v>
@@ -66768,7 +66768,7 @@
         <v>0</v>
       </c>
       <c r="M1473">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1473">
         <v>0</v>
@@ -66812,7 +66812,7 @@
         <v>0</v>
       </c>
       <c r="M1474">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1474">
         <v>0</v>
@@ -67076,7 +67076,7 @@
         <v>0</v>
       </c>
       <c r="M1480">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1480">
         <v>0</v>
@@ -67296,7 +67296,7 @@
         <v>0</v>
       </c>
       <c r="M1485">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N1485">
         <v>0</v>
@@ -67516,7 +67516,7 @@
         <v>0</v>
       </c>
       <c r="M1490">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1490">
         <v>0</v>
@@ -67560,7 +67560,7 @@
         <v>0</v>
       </c>
       <c r="M1491">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1491">
         <v>0</v>
@@ -67604,7 +67604,7 @@
         <v>0</v>
       </c>
       <c r="M1492">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1492">
         <v>0</v>
@@ -67648,7 +67648,7 @@
         <v>0</v>
       </c>
       <c r="M1493">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1493">
         <v>0</v>
@@ -67692,7 +67692,7 @@
         <v>0</v>
       </c>
       <c r="M1494">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1494">
         <v>0</v>
@@ -67736,7 +67736,7 @@
         <v>0</v>
       </c>
       <c r="M1495">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1495">
         <v>0</v>
@@ -67824,7 +67824,7 @@
         <v>0</v>
       </c>
       <c r="M1497">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1497">
         <v>0</v>
@@ -67912,7 +67912,7 @@
         <v>0</v>
       </c>
       <c r="M1499">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1499">
         <v>0</v>
@@ -68220,7 +68220,7 @@
         <v>0</v>
       </c>
       <c r="M1506">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N1506">
         <v>0</v>
@@ -68264,7 +68264,7 @@
         <v>0</v>
       </c>
       <c r="M1507">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1507">
         <v>0</v>
@@ -68484,7 +68484,7 @@
         <v>0</v>
       </c>
       <c r="M1512">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1512">
         <v>0</v>
@@ -68572,7 +68572,7 @@
         <v>0</v>
       </c>
       <c r="M1514">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1514">
         <v>0</v>
@@ -68792,7 +68792,7 @@
         <v>0</v>
       </c>
       <c r="M1519">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N1519">
         <v>0</v>
@@ -68880,7 +68880,7 @@
         <v>0</v>
       </c>
       <c r="M1521">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1521">
         <v>0</v>
@@ -68924,7 +68924,7 @@
         <v>0</v>
       </c>
       <c r="M1522">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1522">
         <v>0</v>
@@ -69320,7 +69320,7 @@
         <v>0</v>
       </c>
       <c r="M1531">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1531">
         <v>0</v>
@@ -69804,7 +69804,7 @@
         <v>0</v>
       </c>
       <c r="M1542">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N1542">
         <v>0</v>
@@ -70024,7 +70024,7 @@
         <v>0</v>
       </c>
       <c r="M1547">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1547">
         <v>0</v>
@@ -70244,7 +70244,7 @@
         <v>0</v>
       </c>
       <c r="M1552">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1552">
         <v>0</v>
@@ -70288,7 +70288,7 @@
         <v>0</v>
       </c>
       <c r="M1553">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1553">
         <v>0</v>
@@ -70376,7 +70376,7 @@
         <v>0</v>
       </c>
       <c r="M1555">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1555">
         <v>0</v>
@@ -70464,7 +70464,7 @@
         <v>0</v>
       </c>
       <c r="M1557">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="N1557">
         <v>0</v>
@@ -70508,7 +70508,7 @@
         <v>0</v>
       </c>
       <c r="M1558">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1558">
         <v>0</v>
@@ -70552,7 +70552,7 @@
         <v>0</v>
       </c>
       <c r="M1559">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1559">
         <v>0</v>
@@ -70772,7 +70772,7 @@
         <v>0</v>
       </c>
       <c r="M1564">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1564">
         <v>0</v>
@@ -70860,7 +70860,7 @@
         <v>0</v>
       </c>
       <c r="M1566">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1566">
         <v>0</v>
@@ -70992,7 +70992,7 @@
         <v>0</v>
       </c>
       <c r="M1569">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1569">
         <v>0</v>
@@ -71124,7 +71124,7 @@
         <v>0</v>
       </c>
       <c r="M1572">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1572">
         <v>0</v>
@@ -71168,7 +71168,7 @@
         <v>0</v>
       </c>
       <c r="M1573">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1573">
         <v>0</v>
@@ -71432,7 +71432,7 @@
         <v>0</v>
       </c>
       <c r="M1579">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1579">
         <v>0</v>
@@ -71564,7 +71564,7 @@
         <v>0</v>
       </c>
       <c r="M1582">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1582">
         <v>0</v>
@@ -71608,7 +71608,7 @@
         <v>0</v>
       </c>
       <c r="M1583">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1583">
         <v>0</v>
@@ -71652,7 +71652,7 @@
         <v>0</v>
       </c>
       <c r="M1584">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1584">
         <v>0</v>
@@ -71696,7 +71696,7 @@
         <v>0</v>
       </c>
       <c r="M1585">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1585">
         <v>0</v>
@@ -71784,7 +71784,7 @@
         <v>0</v>
       </c>
       <c r="M1587">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1587">
         <v>0</v>
@@ -71828,7 +71828,7 @@
         <v>0</v>
       </c>
       <c r="M1588">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1588">
         <v>0</v>
@@ -71872,7 +71872,7 @@
         <v>0</v>
       </c>
       <c r="M1589">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1589">
         <v>0</v>
@@ -71916,7 +71916,7 @@
         <v>0</v>
       </c>
       <c r="M1590">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1590">
         <v>0</v>
@@ -71960,7 +71960,7 @@
         <v>0</v>
       </c>
       <c r="M1591">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1591">
         <v>0</v>
@@ -72048,7 +72048,7 @@
         <v>0</v>
       </c>
       <c r="M1593">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1593">
         <v>0</v>
@@ -72092,7 +72092,7 @@
         <v>0</v>
       </c>
       <c r="M1594">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1594">
         <v>0</v>
@@ -72268,7 +72268,7 @@
         <v>0</v>
       </c>
       <c r="M1598">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1598">
         <v>0</v>
@@ -72356,7 +72356,7 @@
         <v>0</v>
       </c>
       <c r="M1600">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1600">
         <v>0</v>
@@ -72400,7 +72400,7 @@
         <v>0</v>
       </c>
       <c r="M1601">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1601">
         <v>0</v>
@@ -72708,7 +72708,7 @@
         <v>0</v>
       </c>
       <c r="M1608">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1608">
         <v>0</v>
@@ -72796,7 +72796,7 @@
         <v>0</v>
       </c>
       <c r="M1610">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1610">
         <v>0</v>
@@ -72972,7 +72972,7 @@
         <v>0</v>
       </c>
       <c r="M1614">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1614">
         <v>0</v>
@@ -73280,7 +73280,7 @@
         <v>0</v>
       </c>
       <c r="M1621">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1621">
         <v>0</v>
@@ -73368,7 +73368,7 @@
         <v>0</v>
       </c>
       <c r="M1623">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1623">
         <v>0</v>
@@ -73456,7 +73456,7 @@
         <v>0</v>
       </c>
       <c r="M1625">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1625">
         <v>0</v>
@@ -73500,7 +73500,7 @@
         <v>0</v>
       </c>
       <c r="M1626">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1626">
         <v>0</v>
@@ -73588,7 +73588,7 @@
         <v>0</v>
       </c>
       <c r="M1628">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1628">
         <v>0</v>
@@ -73852,7 +73852,7 @@
         <v>0</v>
       </c>
       <c r="M1634">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1634">
         <v>0</v>
@@ -73896,7 +73896,7 @@
         <v>0</v>
       </c>
       <c r="M1635">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1635">
         <v>0</v>
@@ -73940,7 +73940,7 @@
         <v>0</v>
       </c>
       <c r="M1636">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N1636">
         <v>0</v>
@@ -73984,7 +73984,7 @@
         <v>0</v>
       </c>
       <c r="M1637">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1637">
         <v>0</v>
@@ -74292,7 +74292,7 @@
         <v>0</v>
       </c>
       <c r="M1644">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1644">
         <v>0</v>
@@ -74380,7 +74380,7 @@
         <v>0</v>
       </c>
       <c r="M1646">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1646">
         <v>0</v>
@@ -74776,7 +74776,7 @@
         <v>0</v>
       </c>
       <c r="M1655">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1655">
         <v>0</v>
@@ -74952,7 +74952,7 @@
         <v>0</v>
       </c>
       <c r="M1659">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1659">
         <v>0</v>
@@ -75084,7 +75084,7 @@
         <v>0</v>
       </c>
       <c r="M1662">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1662">
         <v>0</v>
@@ -75128,7 +75128,7 @@
         <v>0</v>
       </c>
       <c r="M1663">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1663">
         <v>0</v>
@@ -75172,7 +75172,7 @@
         <v>0</v>
       </c>
       <c r="M1664">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1664">
         <v>0</v>
@@ -75304,7 +75304,7 @@
         <v>0</v>
       </c>
       <c r="M1667">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1667">
         <v>0</v>
@@ -75480,7 +75480,7 @@
         <v>0</v>
       </c>
       <c r="M1671">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1671">
         <v>0</v>
@@ -75524,7 +75524,7 @@
         <v>0</v>
       </c>
       <c r="M1672">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1672">
         <v>0</v>
@@ -75568,7 +75568,7 @@
         <v>0</v>
       </c>
       <c r="M1673">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1673">
         <v>0</v>
@@ -75612,7 +75612,7 @@
         <v>0</v>
       </c>
       <c r="M1674">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1674">
         <v>0</v>
@@ -75656,7 +75656,7 @@
         <v>0</v>
       </c>
       <c r="M1675">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1675">
         <v>0</v>
@@ -75700,7 +75700,7 @@
         <v>0</v>
       </c>
       <c r="M1676">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1676">
         <v>0</v>
@@ -75788,7 +75788,7 @@
         <v>0</v>
       </c>
       <c r="M1678">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1678">
         <v>0</v>
@@ -76184,7 +76184,7 @@
         <v>0</v>
       </c>
       <c r="M1687">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1687">
         <v>0</v>
@@ -76228,7 +76228,7 @@
         <v>0</v>
       </c>
       <c r="M1688">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1688">
         <v>0</v>
@@ -76272,7 +76272,7 @@
         <v>0</v>
       </c>
       <c r="M1689">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1689">
         <v>0</v>
@@ -76316,7 +76316,7 @@
         <v>0</v>
       </c>
       <c r="M1690">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1690">
         <v>0</v>
@@ -76360,7 +76360,7 @@
         <v>0</v>
       </c>
       <c r="M1691">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1691">
         <v>0</v>
@@ -76404,7 +76404,7 @@
         <v>0</v>
       </c>
       <c r="M1692">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1692">
         <v>0</v>
@@ -76580,7 +76580,7 @@
         <v>0</v>
       </c>
       <c r="M1696">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1696">
         <v>0</v>
@@ -76756,7 +76756,7 @@
         <v>0</v>
       </c>
       <c r="M1700">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="N1700">
         <v>0</v>
@@ -76844,7 +76844,7 @@
         <v>0</v>
       </c>
       <c r="M1702">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1702">
         <v>0</v>
@@ -77284,7 +77284,7 @@
         <v>0</v>
       </c>
       <c r="M1712">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1712">
         <v>0</v>
@@ -77416,7 +77416,7 @@
         <v>0</v>
       </c>
       <c r="M1715">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1715">
         <v>0</v>
@@ -77460,7 +77460,7 @@
         <v>0</v>
       </c>
       <c r="M1716">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1716">
         <v>0</v>
@@ -77900,7 +77900,7 @@
         <v>0</v>
       </c>
       <c r="M1726">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1726">
         <v>0</v>
@@ -77988,7 +77988,7 @@
         <v>0</v>
       </c>
       <c r="M1728">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1728">
         <v>0</v>
@@ -78296,7 +78296,7 @@
         <v>0</v>
       </c>
       <c r="M1735">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1735">
         <v>0</v>
@@ -78384,7 +78384,7 @@
         <v>0</v>
       </c>
       <c r="M1737">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1737">
         <v>0</v>
@@ -78692,7 +78692,7 @@
         <v>0</v>
       </c>
       <c r="M1744">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1744">
         <v>0</v>
@@ -78780,7 +78780,7 @@
         <v>0</v>
       </c>
       <c r="M1746">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1746">
         <v>0</v>
@@ -78824,7 +78824,7 @@
         <v>0</v>
       </c>
       <c r="M1747">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1747">
         <v>0</v>
@@ -78868,7 +78868,7 @@
         <v>0</v>
       </c>
       <c r="M1748">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1748">
         <v>0</v>
@@ -79000,7 +79000,7 @@
         <v>0</v>
       </c>
       <c r="M1751">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1751">
         <v>0</v>
@@ -79132,7 +79132,7 @@
         <v>0</v>
       </c>
       <c r="M1754">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1754">
         <v>0</v>
@@ -79176,7 +79176,7 @@
         <v>0</v>
       </c>
       <c r="M1755">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1755">
         <v>0</v>
@@ -79220,7 +79220,7 @@
         <v>0</v>
       </c>
       <c r="M1756">
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="N1756">
         <v>0</v>
@@ -79264,7 +79264,7 @@
         <v>0</v>
       </c>
       <c r="M1757">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1757">
         <v>0</v>
@@ -79308,7 +79308,7 @@
         <v>0</v>
       </c>
       <c r="M1758">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1758">
         <v>0</v>
@@ -79352,7 +79352,7 @@
         <v>0</v>
       </c>
       <c r="M1759">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1759">
         <v>0</v>
@@ -79396,7 +79396,7 @@
         <v>0</v>
       </c>
       <c r="M1760">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1760">
         <v>0</v>
@@ -79440,7 +79440,7 @@
         <v>0</v>
       </c>
       <c r="M1761">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1761">
         <v>0</v>
@@ -79484,7 +79484,7 @@
         <v>0</v>
       </c>
       <c r="M1762">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N1762">
         <v>0</v>
@@ -79528,7 +79528,7 @@
         <v>0</v>
       </c>
       <c r="M1763">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N1763">
         <v>0</v>
@@ -79616,7 +79616,7 @@
         <v>0</v>
       </c>
       <c r="M1765">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1765">
         <v>0</v>
@@ -80012,7 +80012,7 @@
         <v>0</v>
       </c>
       <c r="M1774">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1774">
         <v>0</v>
@@ -80056,7 +80056,7 @@
         <v>0</v>
       </c>
       <c r="M1775">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N1775">
         <v>0</v>
@@ -80672,7 +80672,7 @@
         <v>0</v>
       </c>
       <c r="M1789">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1789">
         <v>0</v>
@@ -80804,7 +80804,7 @@
         <v>0</v>
       </c>
       <c r="M1792">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1792">
         <v>0</v>
@@ -80848,7 +80848,7 @@
         <v>0</v>
       </c>
       <c r="M1793">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1793">
         <v>0</v>
@@ -80980,7 +80980,7 @@
         <v>0</v>
       </c>
       <c r="M1796">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1796">
         <v>0</v>
@@ -81156,7 +81156,7 @@
         <v>0</v>
       </c>
       <c r="M1800">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1800">
         <v>0</v>
@@ -81288,7 +81288,7 @@
         <v>0</v>
       </c>
       <c r="M1803">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1803">
         <v>0</v>
@@ -81420,7 +81420,7 @@
         <v>0</v>
       </c>
       <c r="M1806">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1806">
         <v>0</v>
@@ -81464,7 +81464,7 @@
         <v>0</v>
       </c>
       <c r="M1807">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1807">
         <v>0</v>
@@ -81508,7 +81508,7 @@
         <v>0</v>
       </c>
       <c r="M1808">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1808">
         <v>0</v>
@@ -81552,7 +81552,7 @@
         <v>0</v>
       </c>
       <c r="M1809">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N1809">
         <v>0</v>
@@ -81684,7 +81684,7 @@
         <v>0</v>
       </c>
       <c r="M1812">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1812">
         <v>0</v>
@@ -81728,7 +81728,7 @@
         <v>0</v>
       </c>
       <c r="M1813">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1813">
         <v>0</v>
@@ -81860,7 +81860,7 @@
         <v>0</v>
       </c>
       <c r="M1816">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N1816">
         <v>0</v>
@@ -82080,7 +82080,7 @@
         <v>0</v>
       </c>
       <c r="M1821">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1821">
         <v>0</v>
@@ -82124,7 +82124,7 @@
         <v>0</v>
       </c>
       <c r="M1822">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1822">
         <v>0</v>
@@ -82344,7 +82344,7 @@
         <v>0</v>
       </c>
       <c r="M1827">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1827">
         <v>0</v>
@@ -82388,7 +82388,7 @@
         <v>0</v>
       </c>
       <c r="M1828">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1828">
         <v>0</v>
@@ -82564,7 +82564,7 @@
         <v>0</v>
       </c>
       <c r="M1832">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1832">
         <v>0</v>
@@ -82828,7 +82828,7 @@
         <v>0</v>
       </c>
       <c r="M1838">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N1838">
         <v>0</v>
@@ -83004,7 +83004,7 @@
         <v>0</v>
       </c>
       <c r="M1842">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1842">
         <v>0</v>
@@ -83180,7 +83180,7 @@
         <v>0</v>
       </c>
       <c r="M1846">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1846">
         <v>0</v>
@@ -83224,7 +83224,7 @@
         <v>0</v>
       </c>
       <c r="M1847">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1847">
         <v>0</v>
@@ -83620,7 +83620,7 @@
         <v>0</v>
       </c>
       <c r="M1856">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="N1856">
         <v>0</v>
@@ -83752,7 +83752,7 @@
         <v>0</v>
       </c>
       <c r="M1859">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1859">
         <v>0</v>
@@ -83796,7 +83796,7 @@
         <v>0</v>
       </c>
       <c r="M1860">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1860">
         <v>0</v>
@@ -83840,7 +83840,7 @@
         <v>0</v>
       </c>
       <c r="M1861">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1861">
         <v>0</v>
@@ -83928,7 +83928,7 @@
         <v>0</v>
       </c>
       <c r="M1863">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1863">
         <v>0</v>
@@ -83972,7 +83972,7 @@
         <v>0</v>
       </c>
       <c r="M1864">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1864">
         <v>0</v>
@@ -84104,7 +84104,7 @@
         <v>0</v>
       </c>
       <c r="M1867">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1867">
         <v>0</v>
@@ -84148,7 +84148,7 @@
         <v>0</v>
       </c>
       <c r="M1868">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1868">
         <v>0</v>
@@ -84280,7 +84280,7 @@
         <v>0</v>
       </c>
       <c r="M1871">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1871">
         <v>0</v>
@@ -84500,10 +84500,10 @@
         <v>0</v>
       </c>
       <c r="M1876">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1876">
-        <v>8.709</v>
+        <v>11.612</v>
       </c>
     </row>
     <row r="1877" spans="1:14">
@@ -84544,10 +84544,10 @@
         <v>0</v>
       </c>
       <c r="M1877">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1877">
-        <v>8.709</v>
+        <v>11.612</v>
       </c>
     </row>
     <row r="1878" spans="1:14">
@@ -84632,7 +84632,7 @@
         <v>0</v>
       </c>
       <c r="M1879">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N1879">
         <v>0</v>
@@ -84720,7 +84720,7 @@
         <v>0</v>
       </c>
       <c r="M1881">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1881">
         <v>0</v>
